--- a/sputnik/personal/cel/cel137.xlsx
+++ b/sputnik/personal/cel/cel137.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -203,6 +203,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -513,7 +514,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -589,9 +590,15 @@
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="18">
+        <v>43952</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1000</v>
+      </c>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/cel/cel137.xlsx
+++ b/sputnik/personal/cel/cel137.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Начислен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -162,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -204,6 +210,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -514,7 +521,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="A8" sqref="A8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -602,13 +609,27 @@
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="18">
+        <v>44317</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1000</v>
+      </c>
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
+      <c r="A9" s="19">
+        <v>44317</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2050</v>
+      </c>
       <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
